--- a/JAVA DEV..xlsx
+++ b/JAVA DEV..xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tiffany\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UST\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12720" windowHeight="5088"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Java" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="49">
   <si>
     <t>Topic  (We are looking 80% of the topics) </t>
   </si>
@@ -157,12 +157,27 @@
   </si>
   <si>
     <t># years of experience with Mockito and Power Mockito</t>
+  </si>
+  <si>
+    <t>currently</t>
+  </si>
+  <si>
+    <t>1 year ago</t>
+  </si>
+  <si>
+    <t>currenlty</t>
+  </si>
+  <si>
+    <t>5 years ago</t>
+  </si>
+  <si>
+    <t>2 years ago</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -207,7 +222,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -217,6 +232,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -333,7 +354,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -370,6 +391,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -692,19 +722,19 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomRight" activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="54.88671875" customWidth="1"/>
-    <col min="2" max="2" width="40.88671875" customWidth="1"/>
-    <col min="3" max="3" width="28.44140625" customWidth="1"/>
-    <col min="4" max="4" width="37.88671875" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" hidden="1"/>
+    <col min="1" max="1" width="72.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.85546875" customWidth="1"/>
+    <col min="3" max="3" width="28.42578125" customWidth="1"/>
+    <col min="4" max="4" width="37.85546875" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="9" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="9" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -718,7 +748,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -726,39 +756,63 @@
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:4" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-    </row>
-    <row r="4" spans="1:4" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="5">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-    </row>
-    <row r="5" spans="1:4" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="4">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-    </row>
-    <row r="6" spans="1:4" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="4">
+        <v>7</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7" spans="1:4" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="4">
+        <v>7</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -766,39 +820,63 @@
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
     </row>
-    <row r="8" spans="1:4" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="1:4" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="4">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="1:4" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="4">
+        <v>6</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="1:4" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="4">
+        <v>6</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:4" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="4">
+        <v>6</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
@@ -806,39 +884,63 @@
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="1:4" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="1:4" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="4">
+        <v>6</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" spans="1:4" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="4">
+        <v>6</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="1:4" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="4">
+        <v>6</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" spans="1:4" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="4">
+        <v>6</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>11</v>
       </c>
@@ -846,47 +948,77 @@
       <c r="C17" s="12"/>
       <c r="D17" s="13"/>
     </row>
-    <row r="18" spans="1:4" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-    </row>
-    <row r="19" spans="1:4" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="4">
+        <v>7</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-    </row>
-    <row r="20" spans="1:4" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="4">
+        <v>7</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-    </row>
-    <row r="21" spans="1:4" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="4">
+        <v>7</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-    </row>
-    <row r="22" spans="1:4" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="4">
+        <v>7</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-    </row>
-    <row r="23" spans="1:4" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="4">
+        <v>4</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>13</v>
       </c>
@@ -894,31 +1026,49 @@
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
     </row>
-    <row r="24" spans="1:4" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="2" t="s">
+    <row r="24" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-    </row>
-    <row r="25" spans="1:4" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="2" t="s">
+      <c r="B24" s="15">
+        <v>0</v>
+      </c>
+      <c r="C24" s="15">
+        <v>0</v>
+      </c>
+      <c r="D24" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-    </row>
-    <row r="26" spans="1:4" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="15">
+        <v>0</v>
+      </c>
+      <c r="C25" s="15">
+        <v>0</v>
+      </c>
+      <c r="D25" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-    </row>
-    <row r="27" spans="1:4" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="4">
+        <v>7</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>16</v>
       </c>
@@ -926,23 +1076,35 @@
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
     </row>
-    <row r="28" spans="1:4" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-    </row>
-    <row r="29" spans="1:4" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="4">
+        <v>7</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-    </row>
-    <row r="30" spans="1:4" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="4">
+        <v>7</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>19</v>
       </c>
@@ -950,63 +1112,105 @@
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
     </row>
-    <row r="31" spans="1:4" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-    </row>
-    <row r="32" spans="1:4" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="2" t="s">
+      <c r="B31" s="4">
+        <v>6</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-    </row>
-    <row r="33" spans="1:4" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="15">
+        <v>1</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-    </row>
-    <row r="34" spans="1:4" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="4">
+        <v>4</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-    </row>
-    <row r="35" spans="1:4" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="4">
+        <v>5</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-    </row>
-    <row r="36" spans="1:4" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="4">
+        <v>6</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B36" s="10"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-    </row>
-    <row r="37" spans="1:4" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="10">
+        <v>6</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D36" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B37" s="10"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-    </row>
-    <row r="38" spans="1:4" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="10">
+        <v>6</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D37" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>26</v>
       </c>
@@ -1014,37 +1218,55 @@
       <c r="C38" s="12"/>
       <c r="D38" s="13"/>
     </row>
-    <row r="39" spans="1:4" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="2" t="s">
+    <row r="39" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-    </row>
-    <row r="40" spans="1:4" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="2" t="s">
+      <c r="B39" s="16">
+        <v>0</v>
+      </c>
+      <c r="C39" s="16">
+        <v>0</v>
+      </c>
+      <c r="D39" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-    </row>
-    <row r="41" spans="1:4" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D40" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-    </row>
-    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.3"/>
+      <c r="B41" s="10">
+        <v>6</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D41" s="10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B38:D38"/>
